--- a/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
@@ -541,7 +541,7 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>13440</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>13440</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>13440</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>13440</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>13440</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>13440</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>13440</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>13440</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>13440</v>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>13440</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>13440</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>13440</v>
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>13440</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>13440</v>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>13440</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>13440</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>13440</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>13440</v>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>13440</v>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>13440</v>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>13440</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>13440</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C40">
         <v>13440</v>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>13440</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>13440</v>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>13440</v>
@@ -824,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>13440</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>13440</v>
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>13440</v>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>13440</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C48">
         <v>13440</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>13440</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>13440</v>
@@ -959,7 +959,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>13440</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -970,7 +970,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>13440</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="58" spans="1:3">

--- a/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
@@ -541,7 +541,7 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>2240</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>13440</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>13440</v>
@@ -568,10 +568,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>13440</v>
@@ -579,10 +579,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>13440</v>
@@ -590,10 +590,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>13440</v>
@@ -601,10 +601,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>13440</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>13440</v>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>13440</v>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>13440</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>13440</v>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>13440</v>
@@ -670,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>13440</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>13440</v>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>13440</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>13440</v>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>13440</v>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>13440</v>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>13440</v>
@@ -747,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>13440</v>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>13440</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>13440</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>13440</v>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>13440</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>13440</v>
@@ -813,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>13440</v>
@@ -824,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>6574</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -835,10 +835,10 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>13440</v>
+        <v>13439.99999999519</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -846,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>13440</v>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>13440</v>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>13440</v>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>13440</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>13440</v>
@@ -948,7 +948,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>13440</v>
+        <v>13439.99999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -959,7 +959,7 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>6574</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -970,7 +970,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>4480</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="58" spans="1:3">

--- a/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-D to I.xlsx
@@ -348,112 +348,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
       <c r="C2">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>10252</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -494,10 +494,10 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -505,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -516,10 +516,10 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -527,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -538,131 +538,131 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C23">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -673,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -695,7 +695,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -706,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -717,7 +717,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -728,7 +728,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -739,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -750,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -761,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -772,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -783,7 +783,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -794,7 +794,7 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -802,10 +802,10 @@
         <v>4</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C42">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -813,10 +813,10 @@
         <v>4</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -824,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -835,10 +835,10 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>13439.99999999519</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -846,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -857,10 +857,10 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -868,131 +868,131 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C48">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C49">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C54">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C55">
-        <v>13439.99999999999</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C56">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C59">
-        <v>13440</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
